--- a/documents/02_データベース設計書_E2.xlsx
+++ b/documents/02_データベース設計書_E2.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29019"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\内部共有用\04_取引案件別\19_SEプラス\2024_Dojo\6月\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{86607413-9090-43E4-8B5E-149280F3154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B54B951-80A0-4DD5-8867-CCCA151A58F2}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{86607413-9090-43E4-8B5E-149280F3154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C02B039-2E31-4FE3-8DAE-555E76130030}"/>
   <bookViews>
-    <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="ユーザー" sheetId="4" r:id="rId2"/>
-    <sheet name="商品" sheetId="5" r:id="rId3"/>
-    <sheet name="注文" sheetId="6" r:id="rId4"/>
-    <sheet name="注文商品" sheetId="2" r:id="rId5"/>
+    <sheet name="商品" sheetId="5" r:id="rId2"/>
+    <sheet name="注文" sheetId="6" r:id="rId3"/>
+    <sheet name="注文商品" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -91,9 +90,6 @@
       <t>コウシンシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>杉尾 朋実</t>
   </si>
   <si>
     <t>更新日</t>
@@ -138,22 +134,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー</t>
-  </si>
-  <si>
-    <t>users</t>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>products</t>
   </si>
   <si>
     <t>テーブル</t>
-  </si>
-  <si>
-    <t>ユーザー（イベント出店者）が登録したアカウント情報</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>products</t>
   </si>
   <si>
     <t>ユーザーが登録した商品情報</t>
@@ -230,10 +217,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーID</t>
-  </si>
-  <si>
-    <t>user_id</t>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>product_id</t>
   </si>
   <si>
     <t>SERIAL</t>
@@ -242,131 +229,74 @@
     <t>〇</t>
   </si>
   <si>
-    <t>氏名</t>
-  </si>
-  <si>
-    <t>user_name</t>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
   <si>
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>時間があればハッシュ化する</t>
-  </si>
-  <si>
-    <t>詳細設定</t>
-  </si>
-  <si>
-    <t>config</t>
+    <t>価格</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>売切フラグ</t>
+  </si>
+  <si>
+    <t>is_sold_out</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>注文の可否</t>
+  </si>
+  <si>
+    <t>商品詳細</t>
+  </si>
+  <si>
+    <t>product_detail</t>
   </si>
   <si>
     <t>TEXT</t>
   </si>
   <si>
-    <t>オブジェクト（商品の詳細設定項目など）</t>
-  </si>
-  <si>
-    <t>オーダーURL</t>
-  </si>
-  <si>
-    <t>order_url</t>
-  </si>
-  <si>
-    <t>モバイルオーダーへの遷移URL</t>
-  </si>
-  <si>
-    <t>登録日時</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>CURRENT_TIME</t>
+    <t>オブジェクト（ユーザー/詳細設定を参照）</t>
+  </si>
+  <si>
+    <t>画像URL</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>クラウドなどの保存先URL</t>
   </si>
   <si>
     <t>)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品ID</t>
-  </si>
-  <si>
-    <t>product_id</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
+    <t>注文ID</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
   <si>
     <t>外部参照（ユーザー/ユーザーID）</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>価格</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>売切フラグ</t>
-  </si>
-  <si>
-    <t>is_sold_out</t>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-  </si>
-  <si>
-    <t>注文の可否</t>
-  </si>
-  <si>
-    <t>アレルギー食材</t>
-  </si>
-  <si>
-    <t>allergy</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>アレルギー食材28品目が入っているかどうか</t>
-  </si>
-  <si>
-    <t>商品詳細</t>
-  </si>
-  <si>
-    <t>product_detail</t>
-  </si>
-  <si>
-    <t>オブジェクト（ユーザー/詳細設定を参照）</t>
-  </si>
-  <si>
-    <t>画像URL</t>
-  </si>
-  <si>
-    <t>image_url</t>
-  </si>
-  <si>
-    <t>クラウドなどの保存先URL</t>
-  </si>
-  <si>
-    <t>注文ID</t>
-  </si>
-  <si>
-    <t>order_id</t>
   </si>
   <si>
     <t>注文コード</t>
@@ -473,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -509,13 +439,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,6 +508,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,55 +535,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1704975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3848100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30471CE-96AC-EFFE-2F95-4E0BF0873AA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7458075" y="2228850"/>
-          <a:ext cx="2143125" cy="2495550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,32 +880,32 @@
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
-        <v>45820</v>
+        <v>45834</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -979,16 +913,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -996,60 +930,52 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="3">
@@ -1289,16 +1215,15 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F8C02B-9CD9-404A-8293-0480B678184B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8285C08-DC45-45DC-BAD0-A99526DFD8CA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1347,283 +1272,283 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
-        <v>45820</v>
+        <v>45834</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
+      <c r="J9" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table users (</v>
+        <v>create table products (</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E11" s="7">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id SERIAL ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="L12" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>product_name VARCHAR (30),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="3">
-        <v>30</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_name VARCHAR (30),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L13" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>password VARCHAR (30),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
+        <v>price INTEGER ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>config TEXT ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="L14" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L15" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="L16" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>order_url TEXT ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">created_at TIMESTAMP </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>product_detail TEXT ,</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">image_url TEXT </v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1827,7 +1752,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1837,577 +1762,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8285C08-DC45-45DC-BAD0-A99526DFD8CA}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table products (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>product_id SERIAL ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id INTEGER ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3">
-        <v>30</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>product_name VARCHAR (30),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>price INTEGER ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>is_sold_out BOOLEAN ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>allergy BINARY ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>product_detail TEXT ,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>image_url TEXT ,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">created_at TIMESTAMP </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="L30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278CF4A9-E135-451E-B020-C8A0FB290F05}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2461,62 +1815,62 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
-        <v>45820</v>
+        <v>45834</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
@@ -2528,20 +1882,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2556,23 +1910,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2584,13 +1938,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3">
         <v>13</v>
@@ -2598,11 +1952,11 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2614,25 +1968,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
@@ -2644,25 +1998,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="L14" t="str">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
@@ -2674,25 +2028,25 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="L15" t="str">
         <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
@@ -2704,49 +2058,39 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="e">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -2971,7 +2315,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2980,12 +2324,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3034,62 +2378,62 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
-        <v>45820</v>
+        <v>45834</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
@@ -3101,20 +2445,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3129,23 +2473,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3157,23 +2501,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3185,19 +2529,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3496,7 +2840,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="L30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
